--- a/Buile Order_Schedule_v1.0.xlsx
+++ b/Buile Order_Schedule_v1.0.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E359459-64E2-4C33-AA9C-8ABE8721DE63}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="10-Oct " sheetId="1" r:id="rId1"/>
     <sheet name="17-Oct" sheetId="2" r:id="rId2"/>
+    <sheet name="24-Oct" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Art</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,22 +176,66 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Focus on animation and level building, and how to emphasize the veil.</t>
+  </si>
+  <si>
+    <t>18/Oct-24/Oct</t>
+  </si>
+  <si>
+    <t>Animations for Raven:
+1.Walking
+2.Dying
+3.Teleporting
+4.Dashing(veil jump)
+5.Jumping</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Design animation of Raven:
+1.Walking
+2.Dying
+3.Teleporting
+4.Dashing(veil jump)
+5.Jumping</t>
+  </si>
+  <si>
+    <t>Level 3 design</t>
+  </si>
+  <si>
+    <t>Supplement the art resources needed</t>
+  </si>
+  <si>
+    <t>Level 1 bgm
+Work on how the music changes between planes</t>
+  </si>
+  <si>
+    <t>Sound for Raven's action</t>
+  </si>
+  <si>
+    <t>Implement:
+1.Lever and level rotation
+2.Victory
+3.Enemies</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -210,7 +254,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,8 +285,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -398,11 +448,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -420,53 +548,75 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -743,21 +893,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="55.58203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="55.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
         <v>12</v>
@@ -766,7 +916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="43.5" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -775,76 +925,76 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" ht="56.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:3" ht="57.75" thickTop="1">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:3" ht="15" thickBot="1">
+      <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="57" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:3" ht="57.75" thickTop="1">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="19"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:3" ht="15" thickTop="1">
+      <c r="A7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
+    <row r="8" spans="1:3">
+      <c r="A8" s="21"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:3" ht="15" thickBot="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:3" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:A4"/>
@@ -858,21 +1008,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED14353C-29C7-4927-9888-8186A982CA09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="55.58203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="55.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
         <v>13</v>
@@ -881,85 +1031,85 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="29.25" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" ht="56.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:3" ht="57.75" thickTop="1">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="84.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="1:3" ht="86.25" thickBot="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="71" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:3" ht="72" thickTop="1">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="19"/>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="1:3" ht="15" thickBot="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="70.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:3" ht="72" thickTop="1">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:3" ht="15" thickBot="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:3" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:A4"/>
@@ -971,7 +1121,146 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ABEB5C4F-C5D0-4CC0-B51A-51521725447C}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'10-Oct '!$B$3:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29.25" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="86.25" thickTop="1">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="86.25" thickTop="1">
+      <c r="A5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29.25" thickTop="1">
+      <c r="A7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.75" thickTop="1">
+      <c r="A9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickTop="1"/>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'10-Oct '!$B$3:$B$4</xm:f>
           </x14:formula1>

--- a/Buile Order_Schedule_v1.0.xlsx
+++ b/Buile Order_Schedule_v1.0.xlsx
@@ -177,9 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Focus on animation and level building, and how to emphasize the veil.</t>
-  </si>
-  <si>
     <t>18/Oct-24/Oct</t>
   </si>
   <si>
@@ -202,12 +199,6 @@
 5.Jumping</t>
   </si>
   <si>
-    <t>Level 3 design</t>
-  </si>
-  <si>
-    <t>Supplement the art resources needed</t>
-  </si>
-  <si>
     <t>Level 1 bgm
 Work on how the music changes between planes</t>
   </si>
@@ -215,10 +206,20 @@
     <t>Sound for Raven's action</t>
   </si>
   <si>
+    <t>Focus on animation and level building, and how to emphasize the veil.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish environment art</t>
+  </si>
+  <si>
     <t>Implement:
-1.Lever and level rotation
-2.Victory
-3.Enemies</t>
+1.the behaviour of enemies.
+2.dynamic switching between planes.
+3.the new sounds in game.</t>
+  </si>
+  <si>
+    <t>New level design with new mechanic</t>
   </si>
 </sst>
 </file>
@@ -565,6 +566,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -592,22 +606,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -926,7 +927,7 @@
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="57.75" thickTop="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -937,7 +938,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1">
-      <c r="A4" s="17"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -946,7 +947,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="57.75" thickTop="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -957,7 +958,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1">
-      <c r="A6" s="19"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -966,7 +967,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickTop="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -977,7 +978,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
@@ -986,7 +987,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="22"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
@@ -1035,13 +1036,13 @@
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="57.75" thickTop="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1052,7 +1053,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="86.25" thickBot="1">
-      <c r="A4" s="23"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
@@ -1061,7 +1062,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="72" thickTop="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1072,7 +1073,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1081,7 +1082,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1">
-      <c r="A7" s="24"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
@@ -1090,7 +1091,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" thickTop="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -1101,7 +1102,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="22"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
@@ -1138,7 +1139,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
@@ -1151,7 +1152,7 @@
     <row r="1" spans="1:3">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
@@ -1162,36 +1163,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" ht="86.25" thickTop="1">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:3" ht="15" thickTop="1">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="27">
+    <row r="4" spans="1:3" ht="86.25" thickBot="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="86.25" thickTop="1">
       <c r="A5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -1199,46 +1200,46 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="32"/>
-      <c r="B6" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="27">
+      <c r="B6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.25" thickTop="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>30</v>
+      <c r="B7" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="30" t="s">
-        <v>31</v>
+      <c r="A8" s="29"/>
+      <c r="B8" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C8" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.75" thickTop="1">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1">
-      <c r="A10" s="22"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
@@ -1255,8 +1256,9 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">

--- a/Buile Order_Schedule_v1.0.xlsx
+++ b/Buile Order_Schedule_v1.0.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="10-Oct " sheetId="1" r:id="rId1"/>
     <sheet name="17-Oct" sheetId="2" r:id="rId2"/>
     <sheet name="24-Oct" sheetId="3" r:id="rId3"/>
+    <sheet name="31-Oct" sheetId="5" r:id="rId4"/>
+    <sheet name="07-Nov" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t>Art</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +222,67 @@
   </si>
   <si>
     <t>New level design with new mechanic</t>
+  </si>
+  <si>
+    <t>1/Nov-7/Nov</t>
+  </si>
+  <si>
+    <t>Environment art:
+1.Eastern temple style platform and background
+2.End of goal</t>
+  </si>
+  <si>
+    <t>Dialog mechanic</t>
+  </si>
+  <si>
+    <t>Focus on new mechanic and level building, finish the environment art and simple animation, try release the complete demo in 12 Nov</t>
+  </si>
+  <si>
+    <t>Soft tutorial in game</t>
+  </si>
+  <si>
+    <t>Level main soundtrack</t>
+  </si>
+  <si>
+    <t>Implement:
+1.the behaviour of enemies.
+2.dialog mechanic</t>
+  </si>
+  <si>
+    <t>25/Oct-31/Oct</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus on animation and level building, and how to emphasize the veil.Complete the main gaming content as soon as possible. </t>
+  </si>
+  <si>
+    <t>Art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish environment art:
+1.Platform asset
+2.Main background asset
+3.End goal symbol</t>
+  </si>
+  <si>
+    <t>Design the mechanic of dialog</t>
+  </si>
+  <si>
+    <t>Design the interface of game</t>
+  </si>
+  <si>
+    <t>Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement:
+1.new level building with new portal mechainism.
+2.the behaviour of new enemies.
+3.the new sounds in game.</t>
   </si>
 </sst>
 </file>
@@ -1138,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
@@ -1261,6 +1324,280 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'10-Oct '!$B$3:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="57.75" thickTop="1">
+      <c r="A3" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="86.25" thickBot="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickTop="1">
+      <c r="A5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="29.25" thickTop="1">
+      <c r="A7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57.75" thickTop="1">
+      <c r="A9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Buile Order_Schedule_v1.xlsx]10-Oct '!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.5" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" ht="43.5" thickTop="1">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="86.25" thickBot="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickTop="1">
+      <c r="A5" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickTop="1">
+      <c r="A7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1">
+      <c r="A8" s="29"/>
+      <c r="B8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.5" thickTop="1">
+      <c r="A9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
